--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_64ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_64ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1552,28 +1552,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>126.229532969459</v>
+        <v>160.6776632968209</v>
       </c>
       <c r="AB2" t="n">
-        <v>172.712815862703</v>
+        <v>219.8462675208278</v>
       </c>
       <c r="AC2" t="n">
-        <v>156.2293471207742</v>
+        <v>198.8644483048774</v>
       </c>
       <c r="AD2" t="n">
-        <v>126229.532969459</v>
+        <v>160677.6632968209</v>
       </c>
       <c r="AE2" t="n">
-        <v>172712.815862703</v>
+        <v>219846.2675208278</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.549540085429009e-06</v>
+        <v>6.558910042224554e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.6796875</v>
       </c>
       <c r="AH2" t="n">
-        <v>156229.3471207742</v>
+        <v>198864.4483048774</v>
       </c>
     </row>
     <row r="3">
@@ -1658,28 +1658,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>101.7053243645318</v>
+        <v>127.6054277509819</v>
       </c>
       <c r="AB3" t="n">
-        <v>139.1577117177337</v>
+        <v>174.5953758029754</v>
       </c>
       <c r="AC3" t="n">
-        <v>125.8766950205056</v>
+        <v>157.9322381825371</v>
       </c>
       <c r="AD3" t="n">
-        <v>101705.3243645318</v>
+        <v>127605.4277509819</v>
       </c>
       <c r="AE3" t="n">
-        <v>139157.7117177336</v>
+        <v>174595.3758029754</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.183868917730862e-06</v>
+        <v>7.473399346667044e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.862630208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>125876.6950205056</v>
+        <v>157932.2381825371</v>
       </c>
     </row>
   </sheetData>
@@ -1955,28 +1955,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>108.2451859027233</v>
+        <v>133.4122052217114</v>
       </c>
       <c r="AB2" t="n">
-        <v>148.1058387926113</v>
+        <v>182.5404649153656</v>
       </c>
       <c r="AC2" t="n">
-        <v>133.9708254061349</v>
+        <v>165.1190591410459</v>
       </c>
       <c r="AD2" t="n">
-        <v>108245.1859027233</v>
+        <v>133412.2052217114</v>
       </c>
       <c r="AE2" t="n">
-        <v>148105.8387926113</v>
+        <v>182540.4649153656</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.167053511410864e-06</v>
+        <v>7.564371961563013e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.083984375</v>
       </c>
       <c r="AH2" t="n">
-        <v>133970.8254061349</v>
+        <v>165119.0591410458</v>
       </c>
     </row>
     <row r="3">
@@ -2061,28 +2061,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>108.1722556116446</v>
+        <v>133.3392749306328</v>
       </c>
       <c r="AB3" t="n">
-        <v>148.0060523509002</v>
+        <v>182.4406784736545</v>
       </c>
       <c r="AC3" t="n">
-        <v>133.8805624423696</v>
+        <v>165.0287961772805</v>
       </c>
       <c r="AD3" t="n">
-        <v>108172.2556116447</v>
+        <v>133339.2749306328</v>
       </c>
       <c r="AE3" t="n">
-        <v>148006.0523509002</v>
+        <v>182440.6784736545</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.183376520989502e-06</v>
+        <v>7.588268233531612e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.064453125</v>
       </c>
       <c r="AH3" t="n">
-        <v>133880.5624423696</v>
+        <v>165028.7961772805</v>
       </c>
     </row>
   </sheetData>
@@ -2358,28 +2358,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>121.1453869639791</v>
+        <v>152.2145419009381</v>
       </c>
       <c r="AB2" t="n">
-        <v>165.7564630013173</v>
+        <v>208.2666514604217</v>
       </c>
       <c r="AC2" t="n">
-        <v>149.9368988131744</v>
+        <v>188.3899745491796</v>
       </c>
       <c r="AD2" t="n">
-        <v>121145.3869639791</v>
+        <v>152214.5419009381</v>
       </c>
       <c r="AE2" t="n">
-        <v>165756.4630013173</v>
+        <v>208266.6514604217</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.536604406144277e-06</v>
+        <v>7.018686982611592e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>149936.8988131744</v>
+        <v>188389.9745491796</v>
       </c>
     </row>
   </sheetData>
@@ -2655,28 +2655,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>108.2925329755306</v>
+        <v>140.2930541679368</v>
       </c>
       <c r="AB2" t="n">
-        <v>148.1706211464316</v>
+        <v>191.9551460052176</v>
       </c>
       <c r="AC2" t="n">
-        <v>134.0294250230293</v>
+        <v>173.6352162812734</v>
       </c>
       <c r="AD2" t="n">
-        <v>108292.5329755306</v>
+        <v>140293.0541679368</v>
       </c>
       <c r="AE2" t="n">
-        <v>148170.6211464316</v>
+        <v>191955.1460052177</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.925665482750196e-06</v>
+        <v>7.44412853463066e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.813151041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>134029.4250230293</v>
+        <v>173635.2162812733</v>
       </c>
     </row>
   </sheetData>
@@ -2952,28 +2952,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>137.6468825286417</v>
+        <v>175.3555998597753</v>
       </c>
       <c r="AB2" t="n">
-        <v>188.3345372274823</v>
+        <v>239.9292678711117</v>
       </c>
       <c r="AC2" t="n">
-        <v>170.3601533237275</v>
+        <v>217.0307552884047</v>
       </c>
       <c r="AD2" t="n">
-        <v>137646.8825286417</v>
+        <v>175355.5998597753</v>
       </c>
       <c r="AE2" t="n">
-        <v>188334.5372274823</v>
+        <v>239929.2678711117</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.060412343451051e-06</v>
+        <v>6.417432944662961e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.974609375</v>
       </c>
       <c r="AH2" t="n">
-        <v>170360.1533237275</v>
+        <v>217030.7552884047</v>
       </c>
     </row>
   </sheetData>
@@ -3249,28 +3249,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>109.9584145233678</v>
+        <v>135.2957111346679</v>
       </c>
       <c r="AB2" t="n">
-        <v>150.4499537736884</v>
+        <v>185.1175607998876</v>
       </c>
       <c r="AC2" t="n">
-        <v>136.0912213434049</v>
+        <v>167.4502006113268</v>
       </c>
       <c r="AD2" t="n">
-        <v>109958.4145233678</v>
+        <v>135295.7111346679</v>
       </c>
       <c r="AE2" t="n">
-        <v>150449.9537736884</v>
+        <v>185117.5607998876</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.118053848196283e-06</v>
+        <v>7.461540531180653e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.087239583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>136091.2213434049</v>
+        <v>167450.2006113268</v>
       </c>
     </row>
     <row r="3">
@@ -3355,28 +3355,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>108.9291121754809</v>
+        <v>134.266408786781</v>
       </c>
       <c r="AB3" t="n">
-        <v>149.0416168916955</v>
+        <v>183.7092239178947</v>
       </c>
       <c r="AC3" t="n">
-        <v>134.8172941568157</v>
+        <v>166.1762734247376</v>
       </c>
       <c r="AD3" t="n">
-        <v>108929.1121754809</v>
+        <v>134266.408786781</v>
       </c>
       <c r="AE3" t="n">
-        <v>149041.6168916955</v>
+        <v>183709.2239178947</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.175867660134016e-06</v>
+        <v>7.545826494914206e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.018880208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>134817.2941568157</v>
+        <v>166176.2734247376</v>
       </c>
     </row>
   </sheetData>
@@ -3652,28 +3652,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>161.9114303725189</v>
+        <v>199.0029889317167</v>
       </c>
       <c r="AB2" t="n">
-        <v>221.5343620637588</v>
+        <v>272.2846688485027</v>
       </c>
       <c r="AC2" t="n">
-        <v>200.3914334738872</v>
+        <v>246.2982022076143</v>
       </c>
       <c r="AD2" t="n">
-        <v>161911.4303725188</v>
+        <v>199002.9889317167</v>
       </c>
       <c r="AE2" t="n">
-        <v>221534.3620637588</v>
+        <v>272284.6688485027</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.696000998983686e-06</v>
+        <v>5.921861782424309e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.087890625</v>
       </c>
       <c r="AH2" t="n">
-        <v>200391.4334738872</v>
+        <v>246298.2022076143</v>
       </c>
     </row>
   </sheetData>
@@ -3949,28 +3949,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>107.4778065392769</v>
+        <v>132.0921936591747</v>
       </c>
       <c r="AB2" t="n">
-        <v>147.0558764931563</v>
+        <v>180.7343668607036</v>
       </c>
       <c r="AC2" t="n">
-        <v>133.0210700349083</v>
+        <v>163.4853325498457</v>
       </c>
       <c r="AD2" t="n">
-        <v>107477.8065392769</v>
+        <v>132092.1936591747</v>
       </c>
       <c r="AE2" t="n">
-        <v>147055.8764931563</v>
+        <v>180734.3668607036</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.097870428454801e-06</v>
+        <v>7.569538225538621e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.354166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>133021.0700349083</v>
+        <v>163485.3325498457</v>
       </c>
     </row>
   </sheetData>
@@ -4246,28 +4246,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>107.7626067950831</v>
+        <v>132.7528738140023</v>
       </c>
       <c r="AB2" t="n">
-        <v>147.4455527676507</v>
+        <v>181.6383385956896</v>
       </c>
       <c r="AC2" t="n">
-        <v>133.3735561526792</v>
+        <v>164.3030304911773</v>
       </c>
       <c r="AD2" t="n">
-        <v>107762.6067950831</v>
+        <v>132752.8738140023</v>
       </c>
       <c r="AE2" t="n">
-        <v>147445.5527676507</v>
+        <v>181638.3385956896</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.156362785418202e-06</v>
+        <v>7.582134877546166e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.155598958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>133373.5561526792</v>
+        <v>164303.0304911773</v>
       </c>
     </row>
     <row r="3">
@@ -4352,28 +4352,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>108.0584138187778</v>
+        <v>133.048680837697</v>
       </c>
       <c r="AB3" t="n">
-        <v>147.8502889875544</v>
+        <v>182.0430748155933</v>
       </c>
       <c r="AC3" t="n">
-        <v>133.7396649158062</v>
+        <v>164.6691392543043</v>
       </c>
       <c r="AD3" t="n">
-        <v>108058.4138187778</v>
+        <v>133048.680837697</v>
       </c>
       <c r="AE3" t="n">
-        <v>147850.2889875544</v>
+        <v>182043.0748155933</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.155777765814683e-06</v>
+        <v>7.58127463987002e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.155598958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>133739.6649158062</v>
+        <v>164669.1392543043</v>
       </c>
     </row>
   </sheetData>
@@ -4649,28 +4649,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>117.7762379427052</v>
+        <v>143.4369722216718</v>
       </c>
       <c r="AB2" t="n">
-        <v>161.146644674048</v>
+        <v>196.2567933862112</v>
       </c>
       <c r="AC2" t="n">
-        <v>145.7670350771375</v>
+        <v>177.5263204736263</v>
       </c>
       <c r="AD2" t="n">
-        <v>117776.2379427052</v>
+        <v>143436.9722216718</v>
       </c>
       <c r="AE2" t="n">
-        <v>161146.644674048</v>
+        <v>196256.7933862112</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.832389660828558e-06</v>
+        <v>6.991368502781102e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.341145833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>145767.0350771375</v>
+        <v>177526.3204736263</v>
       </c>
     </row>
     <row r="3">
@@ -4755,28 +4755,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>101.1200083838336</v>
+        <v>126.8659940088208</v>
       </c>
       <c r="AB3" t="n">
-        <v>138.3568565706242</v>
+        <v>173.5836499354367</v>
       </c>
       <c r="AC3" t="n">
-        <v>125.1522723646288</v>
+        <v>157.0170700118298</v>
       </c>
       <c r="AD3" t="n">
-        <v>101120.0083838336</v>
+        <v>126865.9940088208</v>
       </c>
       <c r="AE3" t="n">
-        <v>138356.8565706242</v>
+        <v>173583.6499354367</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.191334373594642e-06</v>
+        <v>7.510679844623997e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.901692708333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>125152.2723646288</v>
+        <v>157017.0700118298</v>
       </c>
     </row>
   </sheetData>
@@ -5052,28 +5052,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>107.950719231331</v>
+        <v>140.2486153095547</v>
       </c>
       <c r="AB2" t="n">
-        <v>147.7029365018599</v>
+        <v>191.8943427986752</v>
       </c>
       <c r="AC2" t="n">
-        <v>133.6063755445359</v>
+        <v>173.5802160474255</v>
       </c>
       <c r="AD2" t="n">
-        <v>107950.7192313311</v>
+        <v>140248.6153095547</v>
       </c>
       <c r="AE2" t="n">
-        <v>147702.9365018599</v>
+        <v>191894.3427986752</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.990982385189463e-06</v>
+        <v>7.494881456757782e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.640625</v>
       </c>
       <c r="AH2" t="n">
-        <v>133606.3755445359</v>
+        <v>173580.2160474255</v>
       </c>
     </row>
   </sheetData>
@@ -5349,28 +5349,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>118.7893206052505</v>
+        <v>150.0514963729796</v>
       </c>
       <c r="AB2" t="n">
-        <v>162.5327890669944</v>
+        <v>205.3070771422365</v>
       </c>
       <c r="AC2" t="n">
-        <v>147.0208877946875</v>
+        <v>185.7128578501325</v>
       </c>
       <c r="AD2" t="n">
-        <v>118789.3206052505</v>
+        <v>150051.4963729796</v>
       </c>
       <c r="AE2" t="n">
-        <v>162532.7890669944</v>
+        <v>205307.0771422365</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.701008225310727e-06</v>
+        <v>7.210156082036585e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.34375</v>
       </c>
       <c r="AH2" t="n">
-        <v>147020.8877946875</v>
+        <v>185712.8578501325</v>
       </c>
     </row>
   </sheetData>
@@ -8467,28 +8467,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>132.4203808082351</v>
+        <v>163.0081698225798</v>
       </c>
       <c r="AB2" t="n">
-        <v>181.183406996643</v>
+        <v>223.0349693640611</v>
       </c>
       <c r="AC2" t="n">
-        <v>163.891516925443</v>
+        <v>201.7488249195648</v>
       </c>
       <c r="AD2" t="n">
-        <v>132420.3808082351</v>
+        <v>163008.1698225798</v>
       </c>
       <c r="AE2" t="n">
-        <v>181183.406996643</v>
+        <v>223034.9693640611</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.327253736824138e-06</v>
+        <v>6.761248607125928e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.251953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>163891.516925443</v>
+        <v>201748.8249195648</v>
       </c>
     </row>
   </sheetData>
@@ -8764,28 +8764,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>193.5429914421738</v>
+        <v>237.2082770511408</v>
       </c>
       <c r="AB2" t="n">
-        <v>264.8140594052249</v>
+        <v>324.5588295518278</v>
       </c>
       <c r="AC2" t="n">
-        <v>239.5405772445343</v>
+        <v>293.583390380676</v>
       </c>
       <c r="AD2" t="n">
-        <v>193542.9914421738</v>
+        <v>237208.2770511408</v>
       </c>
       <c r="AE2" t="n">
-        <v>264814.0594052249</v>
+        <v>324558.8295518279</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.184075034648456e-06</v>
+        <v>5.189011089952214e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.03776041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>239540.5772445343</v>
+        <v>293583.390380676</v>
       </c>
     </row>
   </sheetData>
@@ -9061,28 +9061,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>107.4061588877113</v>
+        <v>132.212494459354</v>
       </c>
       <c r="AB2" t="n">
-        <v>146.9578450154129</v>
+        <v>180.8989677228055</v>
       </c>
       <c r="AC2" t="n">
-        <v>132.9323945438127</v>
+        <v>163.6342241366874</v>
       </c>
       <c r="AD2" t="n">
-        <v>107406.1588877113</v>
+        <v>132212.494459354</v>
       </c>
       <c r="AE2" t="n">
-        <v>146957.845015413</v>
+        <v>180898.9677228055</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.139298383315609e-06</v>
+        <v>7.59270078148825e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.236979166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>132932.3945438127</v>
+        <v>163634.2241366874</v>
       </c>
     </row>
   </sheetData>
@@ -9358,28 +9358,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>113.4020796013738</v>
+        <v>138.9037767774728</v>
       </c>
       <c r="AB2" t="n">
-        <v>155.1617282571948</v>
+        <v>190.054275388993</v>
       </c>
       <c r="AC2" t="n">
-        <v>140.353310683224</v>
+        <v>171.9157620887719</v>
       </c>
       <c r="AD2" t="n">
-        <v>113402.0796013738</v>
+        <v>138903.7767774728</v>
       </c>
       <c r="AE2" t="n">
-        <v>155161.7282571948</v>
+        <v>190054.275388993</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.989495492211199e-06</v>
+        <v>7.245590757408745e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.19140625</v>
       </c>
       <c r="AH2" t="n">
-        <v>140353.310683224</v>
+        <v>171915.7620887719</v>
       </c>
     </row>
     <row r="3">
@@ -9464,28 +9464,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>100.4764969101627</v>
+        <v>134.4217465638456</v>
       </c>
       <c r="AB3" t="n">
-        <v>137.4763757826256</v>
+        <v>183.9217639174935</v>
       </c>
       <c r="AC3" t="n">
-        <v>124.3558234272739</v>
+        <v>166.3685289050765</v>
       </c>
       <c r="AD3" t="n">
-        <v>100476.4969101627</v>
+        <v>134421.7465638456</v>
       </c>
       <c r="AE3" t="n">
-        <v>137476.3757826256</v>
+        <v>183921.7639174935</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.199878183137847e-06</v>
+        <v>7.551101982597036e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.940755208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>124355.8234272739</v>
+        <v>166368.5289050765</v>
       </c>
     </row>
   </sheetData>
@@ -9761,28 +9761,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>258.7720669524614</v>
+        <v>315.6121273685297</v>
       </c>
       <c r="AB2" t="n">
-        <v>354.0633582222365</v>
+        <v>431.8344364899887</v>
       </c>
       <c r="AC2" t="n">
-        <v>320.2720482445498</v>
+        <v>390.6207639548216</v>
       </c>
       <c r="AD2" t="n">
-        <v>258772.0669524615</v>
+        <v>315612.1273685297</v>
       </c>
       <c r="AE2" t="n">
-        <v>354063.3582222365</v>
+        <v>431834.4364899887</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.449426096248996e-06</v>
+        <v>4.083047367987306e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.20442708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>320272.0482445498</v>
+        <v>390620.7639548216</v>
       </c>
     </row>
   </sheetData>
@@ -10058,28 +10058,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>117.4634166498128</v>
+        <v>141.2911290858111</v>
       </c>
       <c r="AB2" t="n">
-        <v>160.7186287804114</v>
+        <v>193.3207561398103</v>
       </c>
       <c r="AC2" t="n">
-        <v>145.3798684196654</v>
+        <v>174.8704945012668</v>
       </c>
       <c r="AD2" t="n">
-        <v>117463.4166498128</v>
+        <v>141291.1290858111</v>
       </c>
       <c r="AE2" t="n">
-        <v>160718.6287804114</v>
+        <v>193320.7561398103</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.822385163607353e-06</v>
+        <v>7.339219912987202e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.054036458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>145379.8684196654</v>
+        <v>174870.4945012668</v>
       </c>
     </row>
   </sheetData>
@@ -10355,28 +10355,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>107.648493950524</v>
+        <v>132.0619060635966</v>
       </c>
       <c r="AB2" t="n">
-        <v>147.2894185394216</v>
+        <v>180.6929260362393</v>
       </c>
       <c r="AC2" t="n">
-        <v>133.2323231560564</v>
+        <v>163.4478467795057</v>
       </c>
       <c r="AD2" t="n">
-        <v>107648.493950524</v>
+        <v>132061.9060635966</v>
       </c>
       <c r="AE2" t="n">
-        <v>147289.4185394216</v>
+        <v>180692.9260362393</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.049337527235171e-06</v>
+        <v>7.538209992132718e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.487630208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>133232.3231560564</v>
+        <v>163447.8467795057</v>
       </c>
     </row>
   </sheetData>
